--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pixel-measurements.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Arkansas</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
   </si>
 </sst>
 </file>
@@ -475,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -649,7 +664,7 @@
         <v>191</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R7" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
+        <f t="shared" ref="R3:R12" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
         <v>-3</v>
       </c>
     </row>
@@ -879,6 +894,297 @@
       <c r="R7">
         <f t="shared" si="0"/>
         <v>-1.1999999999999886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>282</v>
+      </c>
+      <c r="D8">
+        <v>334</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>355</v>
+      </c>
+      <c r="H8">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>433</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>51</v>
+      </c>
+      <c r="M8">
+        <v>184</v>
+      </c>
+      <c r="N8">
+        <v>248</v>
+      </c>
+      <c r="O8">
+        <v>61</v>
+      </c>
+      <c r="P8">
+        <v>218</v>
+      </c>
+      <c r="Q8">
+        <v>213</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>-2.3999999999999773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>135</v>
+      </c>
+      <c r="D9">
+        <v>455</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>47</v>
+      </c>
+      <c r="G9">
+        <v>422</v>
+      </c>
+      <c r="H9">
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <v>451</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <v>295</v>
+      </c>
+      <c r="N9">
+        <v>159</v>
+      </c>
+      <c r="O9">
+        <v>188</v>
+      </c>
+      <c r="P9">
+        <v>235</v>
+      </c>
+      <c r="Q9">
+        <v>220</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>-1.6000000000000227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>146</v>
+      </c>
+      <c r="D10">
+        <v>459</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>453</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>459</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>303</v>
+      </c>
+      <c r="N10">
+        <v>156</v>
+      </c>
+      <c r="O10">
+        <v>207</v>
+      </c>
+      <c r="P10">
+        <v>237</v>
+      </c>
+      <c r="Q10">
+        <v>222</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>155</v>
+      </c>
+      <c r="D11">
+        <v>475</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>443</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>475</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <v>312</v>
+      </c>
+      <c r="N11">
+        <v>163</v>
+      </c>
+      <c r="O11">
+        <v>216</v>
+      </c>
+      <c r="P11">
+        <v>247</v>
+      </c>
+      <c r="Q11">
+        <v>227</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.19999999999998863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>184</v>
+      </c>
+      <c r="D12">
+        <v>466</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <v>446</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>466</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>344</v>
+      </c>
+      <c r="N12">
+        <v>122</v>
+      </c>
+      <c r="O12">
+        <v>154</v>
+      </c>
+      <c r="P12">
+        <v>245</v>
+      </c>
+      <c r="Q12">
+        <v>221</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19">
+        <f>SUM(C11+F11+I11+L11+O11)</f>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-240" yWindow="4620" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pixel-measurements.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Arkansas</t>
   </si>
@@ -82,6 +82,42 @@
   </si>
   <si>
     <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachussetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nebraska's "square" is off: 455 x 447</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -130,8 +166,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -148,19 +236,71 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,15 +630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -553,8 +693,11 @@
       <c r="R1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -611,7 +754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -664,11 +807,11 @@
         <v>191</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R12" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
+        <f t="shared" ref="R3:R22" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -725,7 +868,7 @@
         <v>2.8000000000000114</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -782,7 +925,7 @@
         <v>-3.1999999999999886</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -839,7 +982,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -896,7 +1039,7 @@
         <v>-1.1999999999999886</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -953,7 +1096,7 @@
         <v>-2.3999999999999773</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1153,7 @@
         <v>-1.6000000000000227</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1267,7 @@
         <v>0.19999999999998863</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1181,10 +1324,614 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+      <c r="D13">
+        <v>430</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>390</v>
+      </c>
+      <c r="H13">
+        <v>49</v>
+      </c>
+      <c r="I13">
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>430</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>64</v>
+      </c>
+      <c r="M13">
+        <v>218</v>
+      </c>
+      <c r="N13">
+        <v>220</v>
+      </c>
+      <c r="O13">
+        <v>128</v>
+      </c>
+      <c r="P13">
+        <v>225</v>
+      </c>
+      <c r="Q13">
+        <v>213</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>-1.6000000000000227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>195</v>
+      </c>
+      <c r="D14">
+        <v>330</v>
+      </c>
+      <c r="E14">
+        <v>83</v>
+      </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>367</v>
+      </c>
+      <c r="H14">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>407</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>83</v>
+      </c>
+      <c r="M14">
+        <v>229</v>
+      </c>
+      <c r="N14">
+        <f>413-229</f>
+        <v>184</v>
+      </c>
+      <c r="O14">
+        <v>64</v>
+      </c>
+      <c r="P14">
+        <v>209</v>
+      </c>
+      <c r="Q14">
+        <f>413-209</f>
+        <v>204</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>467</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>366</v>
+      </c>
+      <c r="H15">
+        <f>467-G15</f>
+        <v>101</v>
+      </c>
+      <c r="I15">
+        <v>36</v>
+      </c>
+      <c r="J15">
+        <v>459</v>
+      </c>
+      <c r="K15">
+        <f>467-J15</f>
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>264</v>
+      </c>
+      <c r="N15">
+        <f>467-M15</f>
+        <v>203</v>
+      </c>
+      <c r="O15">
+        <v>190</v>
+      </c>
+      <c r="P15">
+        <v>240</v>
+      </c>
+      <c r="Q15">
+        <f>467-P15</f>
+        <v>227</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>422</v>
+      </c>
+      <c r="E16">
+        <f>431-D16</f>
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>381</v>
+      </c>
+      <c r="H16">
+        <f>431-G16</f>
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>42</v>
+      </c>
+      <c r="J16">
+        <v>417</v>
+      </c>
+      <c r="K16">
+        <f>431-J16</f>
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>93</v>
+      </c>
+      <c r="M16">
+        <v>230</v>
+      </c>
+      <c r="N16">
+        <f>431-M16</f>
+        <v>201</v>
+      </c>
+      <c r="O16">
+        <v>121</v>
+      </c>
+      <c r="P16">
+        <v>225</v>
+      </c>
+      <c r="Q16">
+        <f>431-P16</f>
+        <v>206</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>470</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>155</v>
+      </c>
+      <c r="G17">
+        <v>353</v>
+      </c>
+      <c r="H17">
+        <f>470-G17</f>
+        <v>117</v>
+      </c>
+      <c r="I17">
+        <v>48</v>
+      </c>
+      <c r="J17">
+        <v>458</v>
+      </c>
+      <c r="K17">
+        <f>470-J17</f>
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <v>71</v>
+      </c>
+      <c r="M17">
+        <v>270</v>
+      </c>
+      <c r="N17">
+        <f>470-M17</f>
+        <v>200</v>
+      </c>
+      <c r="O17">
+        <v>147</v>
+      </c>
+      <c r="P17">
+        <v>236</v>
+      </c>
+      <c r="Q17">
+        <f>470-P17</f>
+        <v>234</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>470</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>440</v>
+      </c>
+      <c r="H18">
+        <f>470-G18</f>
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>470</v>
+      </c>
+      <c r="K18">
+        <f>470-J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>72</v>
+      </c>
+      <c r="M18">
+        <v>236</v>
+      </c>
+      <c r="N18">
+        <f>470-M18</f>
+        <v>234</v>
+      </c>
+      <c r="O18">
+        <v>188</v>
+      </c>
+      <c r="P18">
+        <v>244</v>
+      </c>
+      <c r="Q18">
+        <f>470-P18</f>
+        <v>226</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
       <c r="D19">
-        <f>SUM(C11+F11+I11+L11+O11)</f>
-        <v>475</v>
+        <v>460</v>
+      </c>
+      <c r="E19">
+        <f>467-D19</f>
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>440</v>
+      </c>
+      <c r="H19">
+        <f>467-G19</f>
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>467</v>
+      </c>
+      <c r="K19">
+        <f>467-J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>57</v>
+      </c>
+      <c r="M19">
+        <v>312</v>
+      </c>
+      <c r="N19">
+        <f>467-M19</f>
+        <v>155</v>
+      </c>
+      <c r="O19">
+        <v>196</v>
+      </c>
+      <c r="P19">
+        <v>242</v>
+      </c>
+      <c r="Q19">
+        <f>467-P19</f>
+        <v>225</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>309</v>
+      </c>
+      <c r="D20">
+        <v>311</v>
+      </c>
+      <c r="E20">
+        <f>423-D20</f>
+        <v>112</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>382</v>
+      </c>
+      <c r="H20">
+        <f>423-G20</f>
+        <v>41</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>419</v>
+      </c>
+      <c r="K20">
+        <f>423-J20</f>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>49</v>
+      </c>
+      <c r="M20">
+        <v>213</v>
+      </c>
+      <c r="N20">
+        <f>423-M20</f>
+        <v>210</v>
+      </c>
+      <c r="O20">
+        <v>42</v>
+      </c>
+      <c r="P20">
+        <v>215</v>
+      </c>
+      <c r="Q20">
+        <f>423-P20</f>
+        <v>208</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>143</v>
+      </c>
+      <c r="D21">
+        <v>445</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>411</v>
+      </c>
+      <c r="H21">
+        <f>445-G21</f>
+        <v>34</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>440</v>
+      </c>
+      <c r="K21">
+        <f>445-J21</f>
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>56</v>
+      </c>
+      <c r="M21">
+        <v>309</v>
+      </c>
+      <c r="N21">
+        <f>445-M21</f>
+        <v>136</v>
+      </c>
+      <c r="O21">
+        <v>171</v>
+      </c>
+      <c r="P21">
+        <v>230</v>
+      </c>
+      <c r="Q21">
+        <f>445-P21</f>
+        <v>215</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>177</v>
+      </c>
+      <c r="D22">
+        <v>447</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <v>430</v>
+      </c>
+      <c r="H22">
+        <f>447-G22</f>
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>447</v>
+      </c>
+      <c r="K22">
+        <f>447-J22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>74</v>
+      </c>
+      <c r="M22">
+        <v>376</v>
+      </c>
+      <c r="N22">
+        <f>447-M22</f>
+        <v>71</v>
+      </c>
+      <c r="O22">
+        <v>126</v>
+      </c>
+      <c r="P22">
+        <v>235</v>
+      </c>
+      <c r="Q22">
+        <f>447-P22</f>
+        <v>212</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -166,8 +166,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -236,7 +240,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -269,6 +273,8 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -301,6 +307,8 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,7 +641,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection sqref="A1:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1422,7 +1430,6 @@
         <v>229</v>
       </c>
       <c r="N14">
-        <f>413-229</f>
         <v>184</v>
       </c>
       <c r="O14">
@@ -1432,7 +1439,6 @@
         <v>209</v>
       </c>
       <c r="Q14">
-        <f>413-209</f>
         <v>204</v>
       </c>
       <c r="R14">
@@ -1463,7 +1469,6 @@
         <v>366</v>
       </c>
       <c r="H15">
-        <f>467-G15</f>
         <v>101</v>
       </c>
       <c r="I15">
@@ -1473,7 +1478,6 @@
         <v>459</v>
       </c>
       <c r="K15">
-        <f>467-J15</f>
         <v>8</v>
       </c>
       <c r="L15">
@@ -1483,7 +1487,6 @@
         <v>264</v>
       </c>
       <c r="N15">
-        <f>467-M15</f>
         <v>203</v>
       </c>
       <c r="O15">
@@ -1493,7 +1496,6 @@
         <v>240</v>
       </c>
       <c r="Q15">
-        <f>467-P15</f>
         <v>227</v>
       </c>
       <c r="R15">
@@ -1515,7 +1517,6 @@
         <v>422</v>
       </c>
       <c r="E16">
-        <f>431-D16</f>
         <v>9</v>
       </c>
       <c r="F16">
@@ -1525,7 +1526,6 @@
         <v>381</v>
       </c>
       <c r="H16">
-        <f>431-G16</f>
         <v>50</v>
       </c>
       <c r="I16">
@@ -1535,7 +1535,6 @@
         <v>417</v>
       </c>
       <c r="K16">
-        <f>431-J16</f>
         <v>14</v>
       </c>
       <c r="L16">
@@ -1545,7 +1544,6 @@
         <v>230</v>
       </c>
       <c r="N16">
-        <f>431-M16</f>
         <v>201</v>
       </c>
       <c r="O16">
@@ -1555,7 +1553,6 @@
         <v>225</v>
       </c>
       <c r="Q16">
-        <f>431-P16</f>
         <v>206</v>
       </c>
       <c r="R16">
@@ -1586,7 +1583,6 @@
         <v>353</v>
       </c>
       <c r="H17">
-        <f>470-G17</f>
         <v>117</v>
       </c>
       <c r="I17">
@@ -1596,7 +1592,6 @@
         <v>458</v>
       </c>
       <c r="K17">
-        <f>470-J17</f>
         <v>12</v>
       </c>
       <c r="L17">
@@ -1606,7 +1601,6 @@
         <v>270</v>
       </c>
       <c r="N17">
-        <f>470-M17</f>
         <v>200</v>
       </c>
       <c r="O17">
@@ -1616,7 +1610,6 @@
         <v>236</v>
       </c>
       <c r="Q17">
-        <f>470-P17</f>
         <v>234</v>
       </c>
       <c r="R17">
@@ -1647,7 +1640,6 @@
         <v>440</v>
       </c>
       <c r="H18">
-        <f>470-G18</f>
         <v>30</v>
       </c>
       <c r="I18">
@@ -1657,7 +1649,6 @@
         <v>470</v>
       </c>
       <c r="K18">
-        <f>470-J18</f>
         <v>0</v>
       </c>
       <c r="L18">
@@ -1667,7 +1658,6 @@
         <v>236</v>
       </c>
       <c r="N18">
-        <f>470-M18</f>
         <v>234</v>
       </c>
       <c r="O18">
@@ -1677,7 +1667,6 @@
         <v>244</v>
       </c>
       <c r="Q18">
-        <f>470-P18</f>
         <v>226</v>
       </c>
       <c r="R18">
@@ -1699,7 +1688,6 @@
         <v>460</v>
       </c>
       <c r="E19">
-        <f>467-D19</f>
         <v>7</v>
       </c>
       <c r="F19">
@@ -1709,7 +1697,6 @@
         <v>440</v>
       </c>
       <c r="H19">
-        <f>467-G19</f>
         <v>27</v>
       </c>
       <c r="I19">
@@ -1719,7 +1706,6 @@
         <v>467</v>
       </c>
       <c r="K19">
-        <f>467-J19</f>
         <v>0</v>
       </c>
       <c r="L19">
@@ -1729,7 +1715,6 @@
         <v>312</v>
       </c>
       <c r="N19">
-        <f>467-M19</f>
         <v>155</v>
       </c>
       <c r="O19">
@@ -1739,7 +1724,6 @@
         <v>242</v>
       </c>
       <c r="Q19">
-        <f>467-P19</f>
         <v>225</v>
       </c>
       <c r="R19">
@@ -1761,7 +1745,6 @@
         <v>311</v>
       </c>
       <c r="E20">
-        <f>423-D20</f>
         <v>112</v>
       </c>
       <c r="F20">
@@ -1771,7 +1754,6 @@
         <v>382</v>
       </c>
       <c r="H20">
-        <f>423-G20</f>
         <v>41</v>
       </c>
       <c r="I20">
@@ -1781,7 +1763,6 @@
         <v>419</v>
       </c>
       <c r="K20">
-        <f>423-J20</f>
         <v>4</v>
       </c>
       <c r="L20">
@@ -1791,7 +1772,6 @@
         <v>213</v>
       </c>
       <c r="N20">
-        <f>423-M20</f>
         <v>210</v>
       </c>
       <c r="O20">
@@ -1801,7 +1781,6 @@
         <v>215</v>
       </c>
       <c r="Q20">
-        <f>423-P20</f>
         <v>208</v>
       </c>
       <c r="R20">
@@ -1832,7 +1811,6 @@
         <v>411</v>
       </c>
       <c r="H21">
-        <f>445-G21</f>
         <v>34</v>
       </c>
       <c r="I21">
@@ -1842,7 +1820,6 @@
         <v>440</v>
       </c>
       <c r="K21">
-        <f>445-J21</f>
         <v>5</v>
       </c>
       <c r="L21">
@@ -1852,7 +1829,6 @@
         <v>309</v>
       </c>
       <c r="N21">
-        <f>445-M21</f>
         <v>136</v>
       </c>
       <c r="O21">
@@ -1862,7 +1838,6 @@
         <v>230</v>
       </c>
       <c r="Q21">
-        <f>445-P21</f>
         <v>215</v>
       </c>
       <c r="R21">
@@ -1893,7 +1868,6 @@
         <v>430</v>
       </c>
       <c r="H22">
-        <f>447-G22</f>
         <v>17</v>
       </c>
       <c r="I22">
@@ -1903,7 +1877,6 @@
         <v>447</v>
       </c>
       <c r="K22">
-        <f>447-J22</f>
         <v>0</v>
       </c>
       <c r="L22">
@@ -1913,7 +1886,6 @@
         <v>376</v>
       </c>
       <c r="N22">
-        <f>447-M22</f>
         <v>71</v>
       </c>
       <c r="O22">
@@ -1923,7 +1895,6 @@
         <v>235</v>
       </c>
       <c r="Q22">
-        <f>447-P22</f>
         <v>212</v>
       </c>
       <c r="R22">

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Arkansas</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Agriculture</t>
   </si>
   <si>
@@ -118,6 +112,36 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Ag.Male</t>
+  </si>
+  <si>
+    <t>Ag.Female</t>
+  </si>
+  <si>
+    <t>Mfctr.Male</t>
+  </si>
+  <si>
+    <t>Mfctr.Female</t>
+  </si>
+  <si>
+    <t>Trade.Male</t>
+  </si>
+  <si>
+    <t>Trade.Female</t>
+  </si>
+  <si>
+    <t>Srv.Male</t>
+  </si>
+  <si>
+    <t>Srv.Female</t>
+  </si>
+  <si>
+    <t>Sch.Male</t>
+  </si>
+  <si>
+    <t>Sch.Female</t>
   </si>
 </sst>
 </file>
@@ -641,73 +665,73 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q22"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
       <c r="P1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>54</v>
@@ -821,7 +845,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -878,7 +902,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>46</v>
@@ -935,7 +959,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>52</v>
@@ -992,7 +1016,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1049,7 +1073,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>54</v>
@@ -1106,7 +1130,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>43</v>
@@ -1163,7 +1187,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -1220,7 +1244,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -1277,7 +1301,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -1334,7 +1358,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -1391,7 +1415,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>64</v>
@@ -1448,7 +1472,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>38</v>
@@ -1505,7 +1529,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>54</v>
@@ -1562,7 +1586,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>34</v>
@@ -1619,7 +1643,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>36</v>
@@ -1676,7 +1700,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>36</v>
@@ -1733,7 +1757,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>58</v>
@@ -1790,7 +1814,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>48</v>
@@ -1847,7 +1871,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>45</v>
@@ -1902,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="S22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -90,9 +90,6 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>Massachussetts</t>
-  </si>
-  <si>
     <t>Michigan</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Sch.Female</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -681,52 +681,52 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
         <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
       </c>
       <c r="O1" t="s">
         <v>5</v>
       </c>
       <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
         <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
       </c>
       <c r="R1" t="s">
         <v>11</v>
       </c>
       <c r="S1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>34</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>36</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>36</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>58</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>48</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="4620" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pixel-measurements.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Arkansas</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
   </si>
 </sst>
 </file>
@@ -190,8 +196,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -264,7 +286,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -299,6 +321,14 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -333,6 +363,14 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -662,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -839,7 +877,7 @@
         <v>191</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R22" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
+        <f t="shared" ref="R3:R24" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
         <v>-3</v>
       </c>
     </row>
@@ -1927,6 +1965,128 @@
       </c>
       <c r="S22" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>484</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>222</v>
+      </c>
+      <c r="G23">
+        <v>477</v>
+      </c>
+      <c r="H23">
+        <f>484-G23</f>
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>61</v>
+      </c>
+      <c r="J23">
+        <v>484</v>
+      </c>
+      <c r="K23">
+        <f>484-J23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>120</v>
+      </c>
+      <c r="M23">
+        <v>466</v>
+      </c>
+      <c r="N23">
+        <f>484-M23</f>
+        <v>18</v>
+      </c>
+      <c r="O23">
+        <v>48</v>
+      </c>
+      <c r="P23">
+        <v>238</v>
+      </c>
+      <c r="Q23">
+        <f>484-P23</f>
+        <v>246</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>456</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>114</v>
+      </c>
+      <c r="G24">
+        <v>319</v>
+      </c>
+      <c r="H24">
+        <f>456-G24</f>
+        <v>137</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>434</v>
+      </c>
+      <c r="K24">
+        <f>456-J24</f>
+        <v>22</v>
+      </c>
+      <c r="L24">
+        <v>46</v>
+      </c>
+      <c r="M24">
+        <v>215</v>
+      </c>
+      <c r="N24">
+        <f>456-M24</f>
+        <v>241</v>
+      </c>
+      <c r="O24">
+        <v>160</v>
+      </c>
+      <c r="P24">
+        <v>239</v>
+      </c>
+      <c r="Q24">
+        <f>456-P24</f>
+        <v>217</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Arkansas</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Ohio</t>
   </si>
 </sst>
 </file>
@@ -196,8 +208,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -286,7 +318,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -329,6 +361,16 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -371,6 +413,16 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -877,7 +929,7 @@
         <v>191</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R24" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
+        <f t="shared" ref="R3:R28" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
         <v>-3</v>
       </c>
     </row>
@@ -2087,6 +2139,251 @@
       <c r="R24">
         <f t="shared" si="0"/>
         <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>445</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>98</v>
+      </c>
+      <c r="G25">
+        <v>378</v>
+      </c>
+      <c r="H25">
+        <f>445-G25</f>
+        <v>67</v>
+      </c>
+      <c r="I25">
+        <v>49</v>
+      </c>
+      <c r="J25">
+        <v>434</v>
+      </c>
+      <c r="K25">
+        <f>445-J25</f>
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>81</v>
+      </c>
+      <c r="M25">
+        <v>289</v>
+      </c>
+      <c r="N25">
+        <f>445-M25</f>
+        <v>156</v>
+      </c>
+      <c r="O25">
+        <v>152</v>
+      </c>
+      <c r="P25">
+        <v>222</v>
+      </c>
+      <c r="Q25">
+        <f>445-P25</f>
+        <v>223</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>451</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>371</v>
+      </c>
+      <c r="H26">
+        <f>451-G26</f>
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>45</v>
+      </c>
+      <c r="J26">
+        <v>439</v>
+      </c>
+      <c r="K26">
+        <f>451-J26</f>
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <v>79</v>
+      </c>
+      <c r="M26">
+        <v>255</v>
+      </c>
+      <c r="N26">
+        <f>451-M26</f>
+        <v>196</v>
+      </c>
+      <c r="O26">
+        <v>159</v>
+      </c>
+      <c r="P26">
+        <v>230</v>
+      </c>
+      <c r="Q26">
+        <f>451-P26</f>
+        <v>221</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>255</v>
+      </c>
+      <c r="D27">
+        <v>352</v>
+      </c>
+      <c r="E27">
+        <f>403-D27</f>
+        <v>51</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>349</v>
+      </c>
+      <c r="H27">
+        <f>403-G27</f>
+        <v>54</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>397</v>
+      </c>
+      <c r="K27">
+        <f>403-J27</f>
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>179</v>
+      </c>
+      <c r="N27">
+        <f>403-M27</f>
+        <v>224</v>
+      </c>
+      <c r="O27">
+        <v>59</v>
+      </c>
+      <c r="P27">
+        <v>206</v>
+      </c>
+      <c r="Q27">
+        <f>403-P27</f>
+        <v>197</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>127</v>
+      </c>
+      <c r="D28">
+        <v>473</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>62</v>
+      </c>
+      <c r="G28">
+        <v>421</v>
+      </c>
+      <c r="H28">
+        <f>473-G28</f>
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>466</v>
+      </c>
+      <c r="K28">
+        <f>473-J28</f>
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>53</v>
+      </c>
+      <c r="M28">
+        <v>290</v>
+      </c>
+      <c r="N28">
+        <f>473-M28</f>
+        <v>183</v>
+      </c>
+      <c r="O28">
+        <v>201</v>
+      </c>
+      <c r="P28">
+        <v>240</v>
+      </c>
+      <c r="Q28">
+        <f>473-P28</f>
+        <v>233</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Arkansas</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
   </si>
 </sst>
 </file>
@@ -208,8 +217,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -318,7 +341,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -371,6 +394,13 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -423,6 +453,13 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -752,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -929,7 +966,7 @@
         <v>191</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R28" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
+        <f t="shared" ref="R3:R31" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
         <v>-3</v>
       </c>
     </row>
@@ -2384,6 +2421,189 @@
       <c r="R28">
         <f t="shared" si="0"/>
         <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>125</v>
+      </c>
+      <c r="D29">
+        <v>468</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>85</v>
+      </c>
+      <c r="G29">
+        <v>463</v>
+      </c>
+      <c r="H29">
+        <f>D29-G29</f>
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>468</v>
+      </c>
+      <c r="K29">
+        <f>468-J29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>59</v>
+      </c>
+      <c r="M29">
+        <v>419</v>
+      </c>
+      <c r="N29">
+        <f>468-M29</f>
+        <v>49</v>
+      </c>
+      <c r="O29">
+        <v>168</v>
+      </c>
+      <c r="P29">
+        <v>244</v>
+      </c>
+      <c r="Q29">
+        <f>468-P29</f>
+        <v>224</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>442</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>89</v>
+      </c>
+      <c r="G30">
+        <v>392</v>
+      </c>
+      <c r="H30">
+        <f>442-G30</f>
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <v>425</v>
+      </c>
+      <c r="K30">
+        <f>442-J30</f>
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>70</v>
+      </c>
+      <c r="M30">
+        <v>300</v>
+      </c>
+      <c r="N30">
+        <f>442-M30</f>
+        <v>142</v>
+      </c>
+      <c r="O30">
+        <v>181</v>
+      </c>
+      <c r="P30">
+        <v>222</v>
+      </c>
+      <c r="Q30">
+        <f>442-P30</f>
+        <v>220</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>455</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>176</v>
+      </c>
+      <c r="G31">
+        <v>316</v>
+      </c>
+      <c r="H31">
+        <f>455-G31</f>
+        <v>139</v>
+      </c>
+      <c r="I31">
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <v>444</v>
+      </c>
+      <c r="K31">
+        <f>455-J31</f>
+        <v>11</v>
+      </c>
+      <c r="L31">
+        <v>75</v>
+      </c>
+      <c r="M31">
+        <v>280</v>
+      </c>
+      <c r="N31">
+        <f>455-M31</f>
+        <v>175</v>
+      </c>
+      <c r="O31">
+        <v>126</v>
+      </c>
+      <c r="P31">
+        <v>231</v>
+      </c>
+      <c r="Q31">
+        <f>455-P31</f>
+        <v>224</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Arkansas</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Trade</t>
   </si>
   <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
@@ -169,6 +166,15 @@
   </si>
   <si>
     <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
   </si>
 </sst>
 </file>
@@ -217,8 +223,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -341,7 +363,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -401,6 +423,14 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -460,6 +490,14 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -789,76 +827,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
-        <v>39</v>
-      </c>
       <c r="R1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>54</v>
@@ -966,13 +1004,13 @@
         <v>191</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R31" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
+        <f t="shared" ref="R3:R33" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
         <v>-3</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -1029,7 +1067,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>46</v>
@@ -1086,7 +1124,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>52</v>
@@ -1143,7 +1181,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1200,7 +1238,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>54</v>
@@ -1257,7 +1295,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>43</v>
@@ -1314,7 +1352,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -1371,7 +1409,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -1428,7 +1466,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -1485,7 +1523,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -1542,7 +1580,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>64</v>
@@ -1599,7 +1637,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>38</v>
@@ -1656,7 +1694,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>54</v>
@@ -1713,7 +1751,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>34</v>
@@ -1770,7 +1808,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>36</v>
@@ -1827,7 +1865,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>36</v>
@@ -1884,7 +1922,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>58</v>
@@ -1941,7 +1979,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>48</v>
@@ -1998,7 +2036,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>45</v>
@@ -2053,12 +2091,12 @@
         <v>8</v>
       </c>
       <c r="S22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>27</v>
@@ -2119,7 +2157,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>43</v>
@@ -2180,7 +2218,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>46</v>
@@ -2241,7 +2279,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>45</v>
@@ -2302,7 +2340,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>71</v>
@@ -2364,7 +2402,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>33</v>
@@ -2425,7 +2463,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>38</v>
@@ -2486,7 +2524,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>50</v>
@@ -2547,7 +2585,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>42</v>
@@ -2604,6 +2642,130 @@
       <c r="R31">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>287</v>
+      </c>
+      <c r="D32">
+        <v>292</v>
+      </c>
+      <c r="E32">
+        <f>421-D32</f>
+        <v>129</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>327</v>
+      </c>
+      <c r="H32">
+        <f>421-G32</f>
+        <v>94</v>
+      </c>
+      <c r="I32">
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>409</v>
+      </c>
+      <c r="K32">
+        <f>421-J32</f>
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>45</v>
+      </c>
+      <c r="M32">
+        <v>188</v>
+      </c>
+      <c r="N32">
+        <f>421-M32</f>
+        <v>233</v>
+      </c>
+      <c r="O32">
+        <v>56</v>
+      </c>
+      <c r="P32">
+        <v>208</v>
+      </c>
+      <c r="Q32">
+        <f>421-P32</f>
+        <v>213</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>222</v>
+      </c>
+      <c r="D33">
+        <v>369</v>
+      </c>
+      <c r="E33">
+        <f>405-D33</f>
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>372</v>
+      </c>
+      <c r="H33">
+        <f>405-G33</f>
+        <v>33</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+      <c r="J33">
+        <v>405</v>
+      </c>
+      <c r="K33">
+        <f>405-J33</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>49</v>
+      </c>
+      <c r="M33">
+        <v>220</v>
+      </c>
+      <c r="N33">
+        <f>405-M33</f>
+        <v>185</v>
+      </c>
+      <c r="O33">
+        <v>97</v>
+      </c>
+      <c r="P33">
+        <v>209</v>
+      </c>
+      <c r="Q33">
+        <f>405-P33</f>
+        <v>196</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pixel-measurements.xlsx
+++ b/pixel-measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="24880" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pixel-measurements.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Arkansas</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>North West Territory</t>
+  </si>
+  <si>
+    <t>South West Territory</t>
   </si>
 </sst>
 </file>
@@ -223,8 +247,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -363,7 +431,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -431,6 +499,28 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -498,6 +588,28 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1004,7 +1116,7 @@
         <v>191</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R33" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
+        <f t="shared" ref="R3:R41" si="0">SUM(C3+F3+I3+L3+O3)-AVERAGE(SUM(E3+D3),SUM(G3+H3),SUM(J3+K3), SUM(M3:N3),SUM(P3:Q3))</f>
         <v>-3</v>
       </c>
     </row>
@@ -2764,6 +2876,500 @@
         <v>196</v>
       </c>
       <c r="R33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>72</v>
+      </c>
+      <c r="C34">
+        <v>218</v>
+      </c>
+      <c r="D34">
+        <v>353</v>
+      </c>
+      <c r="E34">
+        <f>394-D34</f>
+        <v>41</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>370</v>
+      </c>
+      <c r="H34">
+        <f>394-G34</f>
+        <v>24</v>
+      </c>
+      <c r="I34">
+        <v>19</v>
+      </c>
+      <c r="J34">
+        <v>394</v>
+      </c>
+      <c r="K34">
+        <f>394-J34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>55</v>
+      </c>
+      <c r="M34">
+        <v>264</v>
+      </c>
+      <c r="N34">
+        <f>394-M34</f>
+        <v>130</v>
+      </c>
+      <c r="O34">
+        <v>84</v>
+      </c>
+      <c r="P34">
+        <v>204</v>
+      </c>
+      <c r="Q34">
+        <f>394-P34</f>
+        <v>190</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>144</v>
+      </c>
+      <c r="D35">
+        <v>455</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>57</v>
+      </c>
+      <c r="G35">
+        <v>410</v>
+      </c>
+      <c r="H35">
+        <f>455-G35</f>
+        <v>45</v>
+      </c>
+      <c r="I35">
+        <v>23</v>
+      </c>
+      <c r="J35">
+        <v>455</v>
+      </c>
+      <c r="K35">
+        <f>455-J35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>53</v>
+      </c>
+      <c r="M35">
+        <v>213</v>
+      </c>
+      <c r="N35">
+        <f>455-M35</f>
+        <v>242</v>
+      </c>
+      <c r="O35">
+        <v>173</v>
+      </c>
+      <c r="P35">
+        <v>237</v>
+      </c>
+      <c r="Q35">
+        <f>455-P35</f>
+        <v>218</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>205</v>
+      </c>
+      <c r="D36">
+        <v>368</v>
+      </c>
+      <c r="E36">
+        <f>401-D36</f>
+        <v>33</v>
+      </c>
+      <c r="F36">
+        <v>42</v>
+      </c>
+      <c r="G36">
+        <v>357</v>
+      </c>
+      <c r="H36">
+        <f>401-G36</f>
+        <v>44</v>
+      </c>
+      <c r="I36">
+        <v>19</v>
+      </c>
+      <c r="J36">
+        <v>398</v>
+      </c>
+      <c r="K36">
+        <f>401-J36</f>
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>79</v>
+      </c>
+      <c r="M36">
+        <v>188</v>
+      </c>
+      <c r="N36">
+        <f>401-M36</f>
+        <v>213</v>
+      </c>
+      <c r="O36">
+        <v>52</v>
+      </c>
+      <c r="P36">
+        <v>208</v>
+      </c>
+      <c r="Q36">
+        <f>401-P36</f>
+        <v>193</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>164</v>
+      </c>
+      <c r="D37">
+        <v>435</v>
+      </c>
+      <c r="E37">
+        <f>435-D37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>410</v>
+      </c>
+      <c r="H37">
+        <f>435-G37</f>
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>18</v>
+      </c>
+      <c r="J37">
+        <v>432</v>
+      </c>
+      <c r="K37">
+        <f>435-J37</f>
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>248</v>
+      </c>
+      <c r="N37">
+        <f>435-M37</f>
+        <v>187</v>
+      </c>
+      <c r="O37">
+        <v>179</v>
+      </c>
+      <c r="P37">
+        <v>229</v>
+      </c>
+      <c r="Q37">
+        <f>435-P37</f>
+        <v>206</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>134</v>
+      </c>
+      <c r="D38">
+        <v>461</v>
+      </c>
+      <c r="E38">
+        <f>466-D38</f>
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>46</v>
+      </c>
+      <c r="G38">
+        <v>429</v>
+      </c>
+      <c r="H38">
+        <f>466-G38</f>
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>461</v>
+      </c>
+      <c r="K38">
+        <f>466-J38</f>
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>51</v>
+      </c>
+      <c r="M38">
+        <v>304</v>
+      </c>
+      <c r="N38">
+        <f>466-M38</f>
+        <v>162</v>
+      </c>
+      <c r="O38">
+        <v>214</v>
+      </c>
+      <c r="P38">
+        <v>241</v>
+      </c>
+      <c r="Q38">
+        <f>466-P38</f>
+        <v>225</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>449</v>
+      </c>
+      <c r="E39">
+        <f>456-D39</f>
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>71</v>
+      </c>
+      <c r="G39">
+        <v>390</v>
+      </c>
+      <c r="H39">
+        <f>456-G39</f>
+        <v>66</v>
+      </c>
+      <c r="I39">
+        <v>42</v>
+      </c>
+      <c r="J39">
+        <v>430</v>
+      </c>
+      <c r="K39">
+        <f>456-J39</f>
+        <v>26</v>
+      </c>
+      <c r="L39">
+        <v>192</v>
+      </c>
+      <c r="M39">
+        <v>269</v>
+      </c>
+      <c r="N39">
+        <f>456-M39</f>
+        <v>187</v>
+      </c>
+      <c r="O39">
+        <v>129</v>
+      </c>
+      <c r="P39">
+        <v>228</v>
+      </c>
+      <c r="Q39">
+        <f>456-P39</f>
+        <v>228</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <v>482</v>
+      </c>
+      <c r="E40">
+        <f>482-D40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>181</v>
+      </c>
+      <c r="G40">
+        <v>482</v>
+      </c>
+      <c r="H40">
+        <f>482-G40</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>48</v>
+      </c>
+      <c r="J40">
+        <v>482</v>
+      </c>
+      <c r="K40">
+        <f>482-J40</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>110</v>
+      </c>
+      <c r="M40">
+        <v>446</v>
+      </c>
+      <c r="N40">
+        <f>482-M40</f>
+        <v>36</v>
+      </c>
+      <c r="O40">
+        <v>57</v>
+      </c>
+      <c r="P40">
+        <v>256</v>
+      </c>
+      <c r="Q40">
+        <f>482-P40</f>
+        <v>226</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>162</v>
+      </c>
+      <c r="D41">
+        <v>403</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>54</v>
+      </c>
+      <c r="G41">
+        <v>367</v>
+      </c>
+      <c r="H41">
+        <f>408-G41</f>
+        <v>41</v>
+      </c>
+      <c r="I41">
+        <v>22</v>
+      </c>
+      <c r="J41">
+        <v>408</v>
+      </c>
+      <c r="K41">
+        <f>408-J41</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>86</v>
+      </c>
+      <c r="M41">
+        <v>335</v>
+      </c>
+      <c r="N41">
+        <f>408-M41</f>
+        <v>73</v>
+      </c>
+      <c r="O41">
+        <v>84</v>
+      </c>
+      <c r="P41">
+        <v>212</v>
+      </c>
+      <c r="Q41">
+        <f>408-P41</f>
+        <v>196</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
